--- a/fuentes/contenidos/grado09/guion07/Escaleta MA_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta MA_09_07_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$168</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -377,9 +382,6 @@
     <t>Proponer entre 5 y 7 situaciones donde se aplique la función logaritmo.</t>
   </si>
   <si>
-    <t>Proponer entre 5 y 7 ecuaciones logaritmicas con sus posibles respuestas</t>
-  </si>
-  <si>
     <t>Proponer entre 5 y 7 ecuaciones exponenciales con sus posibles respuestas</t>
   </si>
   <si>
@@ -549,6 +551,9 @@
   </si>
   <si>
     <t>Recurso M7A-03</t>
+  </si>
+  <si>
+    <t>Proponer entre 5 y 7 ecuaciones logaritmicas con sus posibles respuestas.</t>
   </si>
 </sst>
 </file>
@@ -806,6 +811,21 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,21 +851,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1154,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="O18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1179,7 @@
     <col min="12" max="12" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1187,94 +1192,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1287,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1326,13 +1331,13 @@
         <v>32</v>
       </c>
       <c r="S3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -1346,7 +1351,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1385,13 +1390,13 @@
         <v>33</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>53</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1405,7 +1410,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -1420,7 +1425,7 @@
         <v>66</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="1"/>
@@ -1456,7 +1461,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1495,13 +1500,13 @@
         <v>33</v>
       </c>
       <c r="S6" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="U6" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -1515,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -1552,13 +1557,13 @@
         <v>33</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T7" s="18" t="s">
         <v>55</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1572,7 +1577,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>34</v>
@@ -1588,10 +1593,10 @@
         <v>37</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="1"/>
@@ -1627,7 +1632,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1638,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="1"/>
@@ -1680,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1719,13 +1724,13 @@
         <v>33</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T10" s="18" t="s">
         <v>54</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1739,7 +1744,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1750,13 +1755,13 @@
         <v>9</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="1"/>
@@ -1792,7 +1797,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -1829,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -1849,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -1863,7 +1868,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>37</v>
@@ -1888,13 +1893,13 @@
         <v>33</v>
       </c>
       <c r="S13" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="U13" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1908,12 +1913,12 @@
         <v>36</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -1925,7 +1930,7 @@
         <v>78</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="1"/>
@@ -1961,7 +1966,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>34</v>
@@ -1980,7 +1985,7 @@
         <v>83</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>19</v>
@@ -2031,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>86</v>
@@ -2059,13 +2064,13 @@
         <v>32</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -2118,13 +2123,13 @@
         <v>33</v>
       </c>
       <c r="S17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>17</v>
@@ -2155,10 +2160,10 @@
         <v>37</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="1"/>
@@ -2233,13 +2238,13 @@
         <v>33</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T19" s="18" t="s">
         <v>57</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -2264,13 +2269,13 @@
         <v>18</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>92</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="1"/>
@@ -2320,7 +2325,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>37</v>
@@ -2343,13 +2348,13 @@
         <v>33</v>
       </c>
       <c r="S21" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U21" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="T21" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -2380,7 +2385,7 @@
         <v>93</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="1"/>
@@ -2433,7 +2438,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>19</v>
@@ -2510,13 +2515,13 @@
         <v>33</v>
       </c>
       <c r="S24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="U24" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -2546,10 +2551,10 @@
         <v>37</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="1"/>
@@ -2585,7 +2590,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -2596,13 +2601,13 @@
         <v>24</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="1"/>
@@ -2621,7 +2626,7 @@
         <v>68</v>
       </c>
       <c r="T26" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U26" s="25" t="s">
         <v>52</v>
@@ -2638,7 +2643,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -2675,13 +2680,13 @@
         <v>33</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T27" s="18" t="s">
         <v>56</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -2695,7 +2700,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>34</v>
@@ -2714,7 +2719,7 @@
         <v>45</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>19</v>
@@ -2766,7 +2771,7 @@
         <v>37</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>37</v>
@@ -2777,7 +2782,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>31</v>
@@ -2789,13 +2794,13 @@
         <v>33</v>
       </c>
       <c r="S29" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T29" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="U29" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T29" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -2823,7 +2828,7 @@
         <v>37</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>37</v>
@@ -2834,7 +2839,7 @@
         <v>25</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>31</v>
@@ -2846,13 +2851,13 @@
         <v>33</v>
       </c>
       <c r="S30" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="U30" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T30" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="U30" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -2871,7 +2876,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -2880,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>37</v>
@@ -2905,13 +2910,13 @@
         <v>33</v>
       </c>
       <c r="S31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U31" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T31" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -2925,12 +2930,12 @@
         <v>36</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -2939,10 +2944,10 @@
         <v>37</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="1"/>
@@ -2961,7 +2966,7 @@
         <v>68</v>
       </c>
       <c r="T32" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U32" s="25" t="s">
         <v>52</v>
@@ -2978,12 +2983,12 @@
         <v>36</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -2992,10 +2997,10 @@
         <v>37</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="1"/>
@@ -3014,7 +3019,7 @@
         <v>68</v>
       </c>
       <c r="T33" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U33" s="25" t="s">
         <v>52</v>
@@ -3031,19 +3036,19 @@
         <v>36</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="9">
         <v>32</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>37</v>
@@ -3072,12 +3077,12 @@
         <v>36</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H35" s="9">
         <v>33</v>
@@ -3086,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>37</v>
@@ -3097,7 +3102,7 @@
         <v>24</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>31</v>
@@ -3109,13 +3114,13 @@
         <v>33</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T35" s="18" t="s">
         <v>58</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -3129,12 +3134,12 @@
         <v>36</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3143,7 +3148,7 @@
         <v>37</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>37</v>
@@ -3155,7 +3160,7 @@
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q36" s="15">
         <v>6</v>
@@ -3164,13 +3169,13 @@
         <v>33</v>
       </c>
       <c r="S36" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T36" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="U36" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="T36" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="U36" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -4781,14 +4786,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4801,6 +4798,14 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N36">
